--- a/loku_python.xlsx
+++ b/loku_python.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\PYTHON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2319B0C-5B3F-4CD3-970D-0371C2162F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF6E39F-F524-48D7-B936-7DAC58D69063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,6 +22,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>new</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -342,7 +350,13 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>